--- a/resource/excel/example/Record.xlsx
+++ b/resource/excel/example/Record.xlsx
@@ -1,34 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\squick\resource\excel\example\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447B5341-D078-4595-BFC1-A7E5A75967BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2860" yWindow="4730" windowWidth="33600" windowHeight="15810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19095" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="record_1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -110,44 +91,180 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,12 +285,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39988402966399123"/>
+        <fgColor theme="4" tint="0.399884029663991"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -211,14 +514,259 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -227,36 +775,80 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -514,48 +1106,48 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="A1" sqref="$A1:$XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.72592592592593" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.90625" customWidth="1"/>
-    <col min="2" max="2" width="24.7265625" customWidth="1"/>
-    <col min="3" max="3" width="23.08984375" customWidth="1"/>
-    <col min="4" max="4" width="26.08984375" customWidth="1"/>
-    <col min="5" max="5" width="19.7265625" customWidth="1"/>
+    <col min="1" max="1" width="13.9037037037037" customWidth="1"/>
+    <col min="2" max="2" width="24.7259259259259" customWidth="1"/>
+    <col min="3" max="3" width="23.0888888888889" customWidth="1"/>
+    <col min="4" max="4" width="26.0888888888889" customWidth="1"/>
+    <col min="5" max="5" width="19.7259259259259" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:14">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" s="1" customFormat="1" spans="1:14">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -566,16 +1158,16 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" s="1" customFormat="1" spans="1:14">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -586,253 +1178,253 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+    <row r="4" s="1" customFormat="1" spans="1:14">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+    <row r="5" s="1" customFormat="1" spans="1:14">
+      <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="N5" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+    <row r="6" s="1" customFormat="1" spans="1:14">
+      <c r="A6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" s="1" customFormat="1" spans="1:14">
+      <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" s="1" customFormat="1" spans="1:14">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="4">
         <v>512</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" s="1" customFormat="1" spans="1:14">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="4">
         <v>2</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+    <row r="10" s="1" customFormat="1" spans="1:14">
+      <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+    <row r="11" s="1" customFormat="1" spans="1:14">
+      <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+    <row r="12" s="1" customFormat="1" spans="1:14">
+      <c r="A12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C1:D3" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:B3 A8:B9">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C1:D3">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D5 E5 F5 D6 E6 F6 A4:A5 B4:B5 E1:E3 F1:F3 A10:B11" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D5 E5 F5 D6 E6 F6 A4:A5 B4:B5 E1:E3 F1:F3 A10:B11">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="D4 E4 F4 G4 H4 I4 J4 K4 L4 M4 N4 H5 I5 J5 K5 L5 M5 N5 C4:C5" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:B3 A8:B9" xr:uid="{00000000-0002-0000-0000-000003000000}">
-      <formula1>0</formula1>
-    </dataValidation>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="D4 E4 F4 G4 H4 I4 J4 K4 L4 M4 N4 H5 I5 J5 K5 L5 M5 N5 C4:C5"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>